--- a/TIMES-NZ/SuppXLS/Scen_RE_Potentials.xlsx
+++ b/TIMES-NZ/SuppXLS/Scen_RE_Potentials.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\NZ_TIMES_model-v72.1\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\TIMES-NZ-Model-Files\TIMES-NZ\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027949C-AB96-4904-9F7B-0A0DD01EC2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="12435" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro" sheetId="8" r:id="rId1"/>
@@ -21,12 +22,25 @@
     <sheet name="OLD_Sol" sheetId="2" r:id="rId7"/>
     <sheet name="OLD_Wind" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="137">
   <si>
     <t>TimeSlice</t>
   </si>
@@ -434,19 +448,22 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;&lt;doesn’t work</t>
+  </si>
+  <si>
+    <t>*UC_RHSRT~SI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1438,7 +1455,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1450,29 +1467,23 @@
     <xf numFmtId="0" fontId="26" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="29" fillId="28" borderId="11" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="72"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="217" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="28" borderId="0" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="29" fillId="28" borderId="0" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,224 +1496,224 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="218">
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent2 2" xfId="3"/>
-    <cellStyle name="20% - Accent3 2" xfId="4"/>
-    <cellStyle name="20% - Accent4 2" xfId="5"/>
-    <cellStyle name="20% - Accent5 2" xfId="6"/>
-    <cellStyle name="20% - Accent6 2" xfId="7"/>
-    <cellStyle name="20% - Akzent1" xfId="8"/>
-    <cellStyle name="20% - Akzent2" xfId="9"/>
-    <cellStyle name="20% - Akzent3" xfId="10"/>
-    <cellStyle name="20% - Akzent4" xfId="11"/>
-    <cellStyle name="20% - Akzent5" xfId="12"/>
-    <cellStyle name="20% - Akzent6" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="40% - Akzent1" xfId="20"/>
-    <cellStyle name="40% - Akzent2" xfId="21"/>
-    <cellStyle name="40% - Akzent3" xfId="22"/>
-    <cellStyle name="40% - Akzent4" xfId="23"/>
-    <cellStyle name="40% - Akzent5" xfId="24"/>
-    <cellStyle name="40% - Akzent6" xfId="25"/>
-    <cellStyle name="60% - Accent1 2" xfId="26"/>
-    <cellStyle name="60% - Accent2 2" xfId="27"/>
-    <cellStyle name="60% - Accent3 2" xfId="28"/>
-    <cellStyle name="60% - Accent4 2" xfId="29"/>
-    <cellStyle name="60% - Accent5 2" xfId="30"/>
-    <cellStyle name="60% - Accent6 2" xfId="31"/>
-    <cellStyle name="60% - Akzent1" xfId="32"/>
-    <cellStyle name="60% - Akzent2" xfId="33"/>
-    <cellStyle name="60% - Akzent3" xfId="34"/>
-    <cellStyle name="60% - Akzent4" xfId="35"/>
-    <cellStyle name="60% - Akzent5" xfId="36"/>
-    <cellStyle name="60% - Akzent6" xfId="37"/>
-    <cellStyle name="Accent1 2" xfId="38"/>
-    <cellStyle name="Accent2 2" xfId="39"/>
-    <cellStyle name="Accent3 2" xfId="40"/>
-    <cellStyle name="Accent4 2" xfId="41"/>
-    <cellStyle name="Accent5 2" xfId="42"/>
-    <cellStyle name="Accent6 2" xfId="43"/>
-    <cellStyle name="Ausgabe" xfId="44"/>
-    <cellStyle name="Bad 2" xfId="45"/>
-    <cellStyle name="Berechnung" xfId="46"/>
-    <cellStyle name="Calculation 2" xfId="47"/>
-    <cellStyle name="Check Cell 2" xfId="48"/>
-    <cellStyle name="Comma 2" xfId="50"/>
-    <cellStyle name="Comma 3" xfId="51"/>
-    <cellStyle name="Comma 3 2" xfId="52"/>
-    <cellStyle name="Comma 4" xfId="53"/>
-    <cellStyle name="Comma 5" xfId="49"/>
-    <cellStyle name="Eingabe" xfId="54"/>
-    <cellStyle name="Ergebnis" xfId="55"/>
-    <cellStyle name="Erklärender Text" xfId="56"/>
-    <cellStyle name="Euro" xfId="57"/>
-    <cellStyle name="Euro 2" xfId="58"/>
-    <cellStyle name="Explanatory Text 2" xfId="59"/>
-    <cellStyle name="Float" xfId="60"/>
-    <cellStyle name="Float 2" xfId="61"/>
-    <cellStyle name="Good 2" xfId="62"/>
-    <cellStyle name="Heading 1 2" xfId="63"/>
-    <cellStyle name="Heading 2 2" xfId="64"/>
-    <cellStyle name="Heading 3 2" xfId="65"/>
-    <cellStyle name="Heading 4 2" xfId="66"/>
-    <cellStyle name="Hyperlink 2" xfId="67"/>
-    <cellStyle name="Input 2" xfId="68"/>
-    <cellStyle name="Komma 5" xfId="69"/>
-    <cellStyle name="Linked Cell 2" xfId="70"/>
-    <cellStyle name="Neutral 2" xfId="71"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Akzent1" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Akzent2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Akzent3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Akzent4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Akzent5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Akzent6" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - Akzent1" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - Akzent2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - Akzent3" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="40% - Akzent4" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - Akzent5" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Akzent6" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="60% - Akzent1" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="60% - Akzent2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="60% - Akzent3" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="60% - Akzent4" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="60% - Akzent5" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="60% - Akzent6" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Accent1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Accent2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Accent3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Accent4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Accent5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Ausgabe" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Bad 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Berechnung" xfId="46" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Calculation 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Check Cell 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma 3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Comma 4" xfId="53" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Comma 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Eingabe" xfId="54" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Ergebnis" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Erklärender Text" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Euro" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Euro 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Float" xfId="60" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Float 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Good 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Heading 1 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Heading 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Heading 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Heading 4 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Input 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Komma 5" xfId="69" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 11" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="73"/>
-    <cellStyle name="Normal 3" xfId="74"/>
-    <cellStyle name="Normal 4" xfId="75"/>
-    <cellStyle name="Normal 4 2" xfId="76"/>
-    <cellStyle name="Normal 4_AFs" xfId="77"/>
-    <cellStyle name="Normal 5" xfId="78"/>
-    <cellStyle name="Normal 6" xfId="79"/>
-    <cellStyle name="Normal 7" xfId="80"/>
-    <cellStyle name="Normal 8" xfId="81"/>
-    <cellStyle name="Normal 9" xfId="82"/>
-    <cellStyle name="Normal 9 2" xfId="83"/>
-    <cellStyle name="Normal_Sheet7 2" xfId="84"/>
-    <cellStyle name="Normale_B2020" xfId="85"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="217"/>
-    <cellStyle name="Note 2" xfId="86"/>
-    <cellStyle name="Output 2" xfId="87"/>
-    <cellStyle name="Percent 2" xfId="88"/>
-    <cellStyle name="Percent 3" xfId="89"/>
-    <cellStyle name="Style 103" xfId="90"/>
-    <cellStyle name="Style 103 2" xfId="91"/>
-    <cellStyle name="Style 104" xfId="92"/>
-    <cellStyle name="Style 104 2" xfId="93"/>
-    <cellStyle name="Style 105" xfId="94"/>
-    <cellStyle name="Style 106" xfId="95"/>
-    <cellStyle name="Style 107" xfId="96"/>
-    <cellStyle name="Style 108" xfId="97"/>
-    <cellStyle name="Style 108 2" xfId="98"/>
-    <cellStyle name="Style 109" xfId="99"/>
-    <cellStyle name="Style 110" xfId="100"/>
-    <cellStyle name="Style 114" xfId="101"/>
-    <cellStyle name="Style 114 2" xfId="102"/>
-    <cellStyle name="Style 115" xfId="103"/>
-    <cellStyle name="Style 115 2" xfId="104"/>
-    <cellStyle name="Style 116" xfId="105"/>
-    <cellStyle name="Style 117" xfId="106"/>
-    <cellStyle name="Style 118" xfId="107"/>
-    <cellStyle name="Style 119" xfId="108"/>
-    <cellStyle name="Style 119 2" xfId="109"/>
-    <cellStyle name="Style 120" xfId="110"/>
-    <cellStyle name="Style 121" xfId="111"/>
-    <cellStyle name="Style 126" xfId="112"/>
-    <cellStyle name="Style 126 2" xfId="113"/>
-    <cellStyle name="Style 127" xfId="114"/>
-    <cellStyle name="Style 128" xfId="115"/>
-    <cellStyle name="Style 129" xfId="116"/>
-    <cellStyle name="Style 130" xfId="117"/>
-    <cellStyle name="Style 130 2" xfId="118"/>
-    <cellStyle name="Style 131" xfId="119"/>
-    <cellStyle name="Style 132" xfId="120"/>
-    <cellStyle name="Style 137" xfId="121"/>
-    <cellStyle name="Style 137 2" xfId="122"/>
-    <cellStyle name="Style 138" xfId="123"/>
-    <cellStyle name="Style 139" xfId="124"/>
-    <cellStyle name="Style 140" xfId="125"/>
-    <cellStyle name="Style 141" xfId="126"/>
-    <cellStyle name="Style 141 2" xfId="127"/>
-    <cellStyle name="Style 142" xfId="128"/>
-    <cellStyle name="Style 143" xfId="129"/>
-    <cellStyle name="Style 148" xfId="130"/>
-    <cellStyle name="Style 148 2" xfId="131"/>
-    <cellStyle name="Style 149" xfId="132"/>
-    <cellStyle name="Style 150" xfId="133"/>
-    <cellStyle name="Style 151" xfId="134"/>
-    <cellStyle name="Style 152" xfId="135"/>
-    <cellStyle name="Style 152 2" xfId="136"/>
-    <cellStyle name="Style 153" xfId="137"/>
-    <cellStyle name="Style 154" xfId="138"/>
-    <cellStyle name="Style 159" xfId="139"/>
-    <cellStyle name="Style 159 2" xfId="140"/>
-    <cellStyle name="Style 160" xfId="141"/>
-    <cellStyle name="Style 161" xfId="142"/>
-    <cellStyle name="Style 162" xfId="143"/>
-    <cellStyle name="Style 163" xfId="144"/>
-    <cellStyle name="Style 163 2" xfId="145"/>
-    <cellStyle name="Style 164" xfId="146"/>
-    <cellStyle name="Style 165" xfId="147"/>
-    <cellStyle name="Style 21" xfId="148"/>
-    <cellStyle name="Style 21 2" xfId="149"/>
-    <cellStyle name="Style 22" xfId="150"/>
-    <cellStyle name="Style 23" xfId="151"/>
-    <cellStyle name="Style 24" xfId="152"/>
-    <cellStyle name="Style 25" xfId="153"/>
-    <cellStyle name="Style 25 2" xfId="154"/>
-    <cellStyle name="Style 26" xfId="155"/>
-    <cellStyle name="Style 27" xfId="156"/>
-    <cellStyle name="Style 35" xfId="157"/>
-    <cellStyle name="Style 35 2" xfId="158"/>
-    <cellStyle name="Style 36" xfId="159"/>
-    <cellStyle name="Style 37" xfId="160"/>
-    <cellStyle name="Style 38" xfId="161"/>
-    <cellStyle name="Style 39" xfId="162"/>
-    <cellStyle name="Style 39 2" xfId="163"/>
-    <cellStyle name="Style 40" xfId="164"/>
-    <cellStyle name="Style 41" xfId="165"/>
-    <cellStyle name="Style 46" xfId="166"/>
-    <cellStyle name="Style 46 2" xfId="167"/>
-    <cellStyle name="Style 47" xfId="168"/>
-    <cellStyle name="Style 48" xfId="169"/>
-    <cellStyle name="Style 49" xfId="170"/>
-    <cellStyle name="Style 50" xfId="171"/>
-    <cellStyle name="Style 50 2" xfId="172"/>
-    <cellStyle name="Style 51" xfId="173"/>
-    <cellStyle name="Style 52" xfId="174"/>
-    <cellStyle name="Style 58" xfId="175"/>
-    <cellStyle name="Style 58 2" xfId="176"/>
-    <cellStyle name="Style 59" xfId="177"/>
-    <cellStyle name="Style 60" xfId="178"/>
-    <cellStyle name="Style 61" xfId="179"/>
-    <cellStyle name="Style 62" xfId="180"/>
-    <cellStyle name="Style 62 2" xfId="181"/>
-    <cellStyle name="Style 63" xfId="182"/>
-    <cellStyle name="Style 64" xfId="183"/>
-    <cellStyle name="Style 69" xfId="184"/>
-    <cellStyle name="Style 69 2" xfId="185"/>
-    <cellStyle name="Style 70" xfId="186"/>
-    <cellStyle name="Style 71" xfId="187"/>
-    <cellStyle name="Style 72" xfId="188"/>
-    <cellStyle name="Style 73" xfId="189"/>
-    <cellStyle name="Style 73 2" xfId="190"/>
-    <cellStyle name="Style 74" xfId="191"/>
-    <cellStyle name="Style 75" xfId="192"/>
-    <cellStyle name="Style 80" xfId="193"/>
-    <cellStyle name="Style 80 2" xfId="194"/>
-    <cellStyle name="Style 81" xfId="195"/>
-    <cellStyle name="Style 81 2" xfId="196"/>
-    <cellStyle name="Style 82" xfId="197"/>
-    <cellStyle name="Style 83" xfId="198"/>
-    <cellStyle name="Style 84" xfId="199"/>
-    <cellStyle name="Style 85" xfId="200"/>
-    <cellStyle name="Style 85 2" xfId="201"/>
-    <cellStyle name="Style 86" xfId="202"/>
-    <cellStyle name="Style 87" xfId="203"/>
-    <cellStyle name="Style 93" xfId="204"/>
-    <cellStyle name="Style 93 2" xfId="205"/>
-    <cellStyle name="Style 94" xfId="206"/>
-    <cellStyle name="Style 95" xfId="207"/>
-    <cellStyle name="Style 96" xfId="208"/>
-    <cellStyle name="Style 97" xfId="209"/>
-    <cellStyle name="Style 97 2" xfId="210"/>
-    <cellStyle name="Style 98" xfId="211"/>
-    <cellStyle name="Style 99" xfId="212"/>
-    <cellStyle name="Title 2" xfId="213"/>
-    <cellStyle name="Total 2" xfId="214"/>
-    <cellStyle name="Warnender Text" xfId="215"/>
-    <cellStyle name="Warning Text 2" xfId="216"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 11" xfId="1" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 4" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 4_AFs" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 5" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 7" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 8" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 9" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 9 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal_Sheet7 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normale_B2020" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="217" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Note 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Output 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Percent 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Percent 3" xfId="89" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Style 103" xfId="90" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Style 103 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Style 104" xfId="92" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Style 104 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Style 105" xfId="94" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Style 106" xfId="95" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Style 107" xfId="96" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Style 108" xfId="97" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Style 108 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Style 109" xfId="99" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Style 110" xfId="100" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Style 114" xfId="101" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Style 114 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Style 115" xfId="103" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Style 115 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Style 116" xfId="105" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Style 117" xfId="106" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Style 118" xfId="107" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Style 119" xfId="108" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Style 119 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Style 120" xfId="110" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Style 121" xfId="111" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Style 126" xfId="112" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Style 126 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Style 127" xfId="114" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Style 128" xfId="115" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Style 129" xfId="116" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Style 130" xfId="117" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Style 130 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Style 131" xfId="119" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Style 132" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Style 137" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Style 137 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Style 138" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Style 139" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Style 140" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Style 141" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Style 141 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Style 142" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Style 143" xfId="129" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Style 148" xfId="130" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Style 148 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Style 149" xfId="132" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Style 150" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Style 151" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Style 152" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Style 152 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Style 153" xfId="137" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Style 154" xfId="138" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Style 159" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Style 159 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Style 160" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Style 161" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Style 162" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Style 163" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Style 163 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Style 164" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Style 165" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Style 21" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Style 21 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Style 22" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Style 23" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Style 24" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Style 25" xfId="153" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Style 25 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Style 26" xfId="155" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Style 27" xfId="156" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Style 35" xfId="157" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Style 35 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Style 36" xfId="159" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Style 37" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Style 38" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Style 39" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Style 39 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Style 40" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Style 41" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Style 46" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Style 46 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Style 47" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Style 48" xfId="169" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Style 49" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Style 50" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Style 50 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Style 51" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Style 52" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Style 58" xfId="175" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Style 58 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Style 59" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Style 60" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Style 61" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Style 62" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Style 62 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Style 63" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Style 64" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Style 69" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Style 69 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Style 70" xfId="186" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Style 71" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Style 72" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Style 73" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Style 73 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Style 74" xfId="191" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Style 75" xfId="192" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Style 80" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Style 80 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Style 81" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Style 81 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Style 82" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Style 83" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Style 84" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Style 85" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Style 85 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Style 86" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Style 87" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Style 93" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Style 93 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Style 94" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Style 95" xfId="207" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Style 96" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Style 97" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Style 97 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Style 98" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Style 99" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Title 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Total 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Warnender Text" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Warning Text 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1734,7 +1745,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1761,9 +1778,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1801,9 +1818,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1838,7 +1855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1873,7 +1890,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2046,532 +2063,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="11"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="3:12">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="3:12">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="11" t="s">
+    <row r="5" spans="3:12">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+    <row r="6" spans="3:12">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="3:12">
+      <c r="C7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7">
         <v>2021</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.02</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <f>0.016</f>
         <v>1.6E-2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="11">
+    <row r="8" spans="3:12">
+      <c r="F8">
         <v>2025</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <f>I7</f>
         <v>0.02</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="11">
+    <row r="9" spans="3:12">
+      <c r="F9">
         <v>2030</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <f>I8</f>
         <v>0.02</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="11">
+    <row r="10" spans="3:12">
+      <c r="F10">
         <v>2035</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24">
+      <c r="H10" s="19"/>
+      <c r="I10" s="20">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="20">
         <f>J9</f>
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="11">
+    <row r="11" spans="3:12">
+      <c r="F11">
         <v>2040</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24">
+      <c r="H11" s="19"/>
+      <c r="I11" s="20">
         <f>I10</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="20">
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="3:12">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+    <row r="15" spans="3:12">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="11" t="s">
+    <row r="16" spans="3:12">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="16" t="s">
+    <row r="17" spans="3:12">
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="3:12">
+      <c r="C18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
         <v>0.33</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F19" s="11">
+    <row r="19" spans="3:12">
+      <c r="F19">
         <v>2030</v>
       </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="11">
+    <row r="20" spans="3:12">
+      <c r="F20">
         <v>2035</v>
       </c>
-      <c r="I20" s="10">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="11">
+    <row r="21" spans="3:12">
+      <c r="F21">
         <v>2040</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24">
-        <v>0</v>
-      </c>
-      <c r="J21" s="24">
+      <c r="H21" s="19"/>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
         <v>1.2150000000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="12" t="s">
+    <row r="22" spans="3:12">
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
+    <row r="25" spans="3:12">
+      <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="11" t="s">
+    <row r="26" spans="3:12">
+      <c r="G26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
+    <row r="27" spans="3:12">
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="11" t="s">
+    <row r="28" spans="3:12">
+      <c r="C28" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28">
         <v>2025</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
         <v>0.16800000000000001</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F29" s="11">
+    <row r="29" spans="3:12">
+      <c r="F29">
         <v>2050</v>
       </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="12" t="s">
+    <row r="30" spans="3:12">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C34" s="12" t="s">
+    <row r="34" spans="3:12">
+      <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G35" s="11" t="s">
+    <row r="35" spans="3:12">
+      <c r="G35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="16" t="s">
+    <row r="36" spans="3:12">
+      <c r="C36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="15" t="s">
+      <c r="G36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="s">
+    <row r="37" spans="3:12">
+      <c r="C37" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37">
         <v>2025</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10">
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
         <v>1.3</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37">
         <v>3</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="12" t="s">
+    <row r="38" spans="3:12">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="12" t="s">
+    <row r="41" spans="3:12">
+      <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G42" s="11" t="s">
+    <row r="42" spans="3:12">
+      <c r="G42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
+    <row r="43" spans="3:12">
+      <c r="C43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="15" t="s">
+      <c r="G43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="15" t="s">
+      <c r="J43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="15" t="s">
+      <c r="K43" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="11" t="s">
+    <row r="44" spans="3:12">
+      <c r="C44" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44">
         <v>2025</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="11">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10">
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7">
         <v>0.2</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="7">
         <v>0.73</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44">
         <v>3</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="I48" s="25"/>
+    <row r="45" spans="3:12">
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="I48" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2580,375 +2594,372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="11"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="3:12">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="3:12">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="11" t="s">
+    <row r="7" spans="3:12">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="16" t="s">
+    <row r="8" spans="3:12">
+      <c r="C8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="3:12">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9">
         <v>2021</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
         <v>2.9780000000000002</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>4.07</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="11">
+    <row r="10" spans="3:12">
+      <c r="F10">
         <v>2030</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <v>2.9780000000000002</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="7">
         <v>4.07</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="11">
+    <row r="11" spans="3:12">
+      <c r="F11">
         <v>2040</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <v>2.9780000000000002</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="7">
         <v>4.07</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="11">
+    <row r="12" spans="3:12">
+      <c r="F12">
         <v>2050</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <v>2.9780000000000002</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <v>4.07</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="3:12">
+      <c r="C14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
+    <row r="17" spans="3:16">
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="3:16">
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G19" s="11" t="s">
+    <row r="19" spans="3:16">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="16" t="s">
+    <row r="20" spans="3:16">
+      <c r="C20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="3:16">
+      <c r="C21" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17">
         <f>1.771-0.133</f>
         <v>1.6379999999999999</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="7">
         <v>0.50800000000000001</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="3:16">
+      <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22">
         <v>2030</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17">
         <v>2.8650000000000002</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="7">
         <v>1.55</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22">
         <v>5</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="3:16">
+      <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23">
         <v>2030</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17">
         <v>3.4</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="7">
         <v>0.67500000000000004</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="3:16">
+      <c r="C24" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24">
         <v>2030</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="7">
         <v>0.215</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
+    <row r="27" spans="3:16">
+      <c r="C27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="11" t="s">
+    <row r="28" spans="3:16">
+      <c r="C28" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28">
         <v>2021</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="11">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0.13300000000000001</v>
       </c>
-      <c r="J28" s="11">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>5</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2958,782 +2969,779 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="27.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="11"/>
-    <col min="4" max="4" width="25.5703125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:14">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F5" s="11" t="s">
+    <row r="5" spans="2:14">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:14">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <v>2040</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
         <v>0.05</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <v>2050</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
         <f>0.025+H7</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <v>2060</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
         <f>0.025+H8</f>
         <v>0.1</v>
       </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H10" s="21"/>
-      <c r="N10" s="22" t="s">
+    <row r="10" spans="2:14">
+      <c r="H10" s="17"/>
+      <c r="N10" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="2:14">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="11" t="s">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15">
         <v>2021</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="21">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
         <v>0.125</v>
       </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="11">
+    <row r="16" spans="2:14">
+      <c r="E16">
         <v>2025</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="17">
         <f>0.125+H15</f>
         <v>0.25</v>
       </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H17" s="21"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="21"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="H17" s="17"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="H18" s="17"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="11" t="s">
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="I24" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25">
         <v>2021</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
         <v>0.125</v>
       </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="11">
+    <row r="26" spans="2:11">
+      <c r="E26">
         <v>2025</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="17">
         <f>0.125+H25</f>
         <v>0.25</v>
       </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H27" s="21"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H28" s="21"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="H27" s="17"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="H28" s="17"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="11" t="s">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="F33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="I34" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35">
         <v>2030</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="11">
-        <v>1</v>
-      </c>
-      <c r="H35" s="21">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
         <v>0.34499999999999997</v>
       </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>5</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="11">
+    <row r="36" spans="2:11">
+      <c r="E36">
         <v>2035</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="17">
         <f>0.03+H35</f>
         <v>0.375</v>
       </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="11">
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="E37">
         <v>2040</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="17">
         <f>0.26+H36</f>
         <v>0.63500000000000001</v>
       </c>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E38" s="11">
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="E38">
         <v>2050</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="17">
         <f>0.05+H37</f>
         <v>0.68500000000000005</v>
       </c>
-      <c r="I38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F43" s="11" t="s">
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="F43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="15" t="s">
+      <c r="F44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44" s="15" t="s">
+      <c r="I44" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="2:11">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45">
         <v>2030</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="11">
-        <v>1</v>
-      </c>
-      <c r="H45" s="21">
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I45" s="10">
-        <v>0</v>
-      </c>
-      <c r="J45" s="11">
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>5</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="11">
+    <row r="46" spans="2:11">
+      <c r="E46">
         <v>2035</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="17">
         <f>0.03+H45</f>
         <v>0.32499999999999996</v>
       </c>
-      <c r="I46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="11">
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="E47">
         <v>2040</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="17">
         <f>H46+0.25</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="I47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="11">
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="E48">
         <v>2050</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="17">
         <f>H47+0.05</f>
         <v>0.625</v>
       </c>
-      <c r="I48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="12" t="s">
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F53" s="11" t="s">
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="F53" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="F54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="15" t="s">
+      <c r="I54" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+    <row r="55" spans="2:14">
+      <c r="B55" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55">
         <v>2021</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="11">
-        <v>1</v>
-      </c>
-      <c r="H55" s="21">
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17">
         <v>0.15</v>
       </c>
-      <c r="I55" s="10">
-        <v>0</v>
-      </c>
-      <c r="J55" s="11">
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>5</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" t="s">
         <v>98</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E56" s="11">
+    <row r="56" spans="2:14">
+      <c r="E56">
         <v>2025</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="17">
         <f>H55+0.125</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="I56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E57" s="11">
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="E57">
         <v>2030</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="17">
         <f>H56+0.37</f>
         <v>0.64500000000000002</v>
       </c>
-      <c r="I57" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E58" s="11">
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="E58">
         <v>2035</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="17">
         <f>H57+0.03</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="I58" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E59" s="11">
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="E59">
         <v>2040</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="17">
         <f>H58+0.285</f>
         <v>0.96</v>
       </c>
-      <c r="I59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E60" s="11">
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="E60">
         <v>2050</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="17">
         <f>H59+0.075</f>
         <v>1.0349999999999999</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3744,176 +3752,144 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B7:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+    </row>
+    <row r="9" spans="2:11">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11">
         <v>2025</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
         <v>0.2</v>
       </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+    <row r="12" spans="2:11">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12">
         <v>2030</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
         <f>H11</f>
         <v>0.2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <f t="shared" ref="I12:I13" si="0">I3</f>
         <v>0</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+    <row r="13" spans="2:11">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13">
         <v>2050</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
         <f>H12</f>
         <v>0.2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3923,24 +3899,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="11" max="11" width="9.140625" style="11"/>
+    <col min="11" max="11" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15">
       <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3950,7 +3926,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3975,437 +3951,376 @@
       <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="3:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2025</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.02</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.24399999999999999</v>
       </c>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2030</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>1.26</v>
       </c>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2050</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>1.26</v>
       </c>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+    </row>
+    <row r="13" spans="3:15">
+      <c r="G13" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="16" t="s">
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="3:15">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>0.02</v>
       </c>
       <c r="J15">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="7">
         <v>5</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" t="s">
         <v>55</v>
       </c>
       <c r="O15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+    <row r="16" spans="3:15">
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16">
         <v>2025</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="7">
         <f>J6</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="7">
         <v>5</v>
       </c>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+    </row>
+    <row r="17" spans="3:15">
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17">
         <v>2030</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
         <f t="shared" ref="I17" si="0">I8</f>
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <f>J7</f>
         <v>1.26</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <v>5</v>
       </c>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="11" t="s">
+    </row>
+    <row r="18" spans="3:15">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18">
         <v>2050</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
         <f t="shared" ref="I18" si="1">I9</f>
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="7">
         <f>J8</f>
         <v>1.26</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
+    <row r="20" spans="3:15">
+      <c r="C20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
+    </row>
+    <row r="22" spans="3:15">
+      <c r="G22" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="3:15">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="7">
         <v>5</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" t="s">
         <v>59</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+    <row r="25" spans="3:15">
+      <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25">
         <v>2025</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
         <v>0.3</v>
       </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10">
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7">
         <v>5</v>
       </c>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
+    </row>
+    <row r="26" spans="3:15">
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26">
         <v>2030</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10">
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
         <v>0.3</v>
       </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10">
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7">
         <v>5</v>
       </c>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="11" t="s">
+    </row>
+    <row r="27" spans="3:15">
+      <c r="E27" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27">
         <v>2050</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10">
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
         <v>0.3</v>
       </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7">
         <v>5</v>
       </c>
     </row>
@@ -4415,24 +4330,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C2:L26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="15" max="15" width="9.140625" style="11"/>
+    <col min="15" max="15" width="9.1796875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12">
       <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4441,7 +4356,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4466,190 +4381,157 @@
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="3:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    <row r="5" spans="3:12">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>2025</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0.32</v>
       </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2030</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>3.57</v>
       </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2050</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>3.57</v>
       </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+    </row>
+    <row r="11" spans="3:12">
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="O11"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="16" t="s">
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O12"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:12">
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13">
         <v>2021</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.1</v>
       </c>
-      <c r="J13" s="10">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>5</v>
       </c>
       <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="O13"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+    </row>
+    <row r="14" spans="3:12">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
       <c r="F14">
@@ -4661,244 +4543,197 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <f>I5</f>
         <v>0.32</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="7">
         <f t="shared" ref="J14:J16" si="0">J5</f>
         <v>0</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="11" t="s">
+    </row>
+    <row r="15" spans="3:12">
+      <c r="E15" t="s">
         <v>50</v>
       </c>
       <c r="F15">
         <v>2030</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <f>+I14*1.5</f>
         <v>0.48</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E16" s="11" t="s">
+    </row>
+    <row r="16" spans="3:12">
+      <c r="E16" t="s">
         <v>50</v>
       </c>
       <c r="F16">
         <v>2050</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <f>I7-0.9757</f>
         <v>2.5942999999999996</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11" t="s">
+    </row>
+    <row r="21" spans="3:12">
+      <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="16" t="s">
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="3:12">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="E23" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
         <v>0.05</v>
       </c>
-      <c r="J23" s="10">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+    <row r="24" spans="3:12">
+      <c r="E24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24">
         <v>2025</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
         <v>0.5</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="7">
         <f t="shared" ref="J24" si="1">J15</f>
         <v>0</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+    </row>
+    <row r="25" spans="3:12">
+      <c r="E25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25">
         <v>2030</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
         <v>1.5</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="7">
         <f t="shared" ref="J25" si="2">J16</f>
         <v>0</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
+    </row>
+    <row r="26" spans="3:12">
+      <c r="E26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26">
         <v>2050</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10">
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
         <v>1.5</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="7">
         <f t="shared" ref="J26" si="3">J17</f>
         <v>0</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4906,21 +4741,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4929,7 +4764,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4955,7 +4790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4971,367 +4806,318 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="2:14">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2030</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1.8</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="2:14">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2050</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>3.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+    </row>
+    <row r="13" spans="2:14">
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15">
         <v>2025</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
         <f>H5</f>
         <v>0</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <f>I5</f>
         <v>0</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" t="s">
         <v>30</v>
       </c>
       <c r="N15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+    <row r="16" spans="2:14">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16">
         <v>2030</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" ref="H16:I16" si="0">H6</f>
         <v>1.8</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
+    <row r="17" spans="2:14">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17">
         <v>2050</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" ref="H17:I17" si="1">H7</f>
         <v>3.5</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
+      <c r="K17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+    <row r="20" spans="2:14">
+      <c r="F20" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="N21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="2:14">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>2021</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
         <v>0.1</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="7">
         <f>+I15</f>
         <v>0</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22">
         <v>3</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+    <row r="23" spans="2:14">
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23">
         <v>2030</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
         <f>+H16</f>
         <v>1.8</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="7">
         <f>+I16</f>
         <v>0.6</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
+      <c r="K23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="11" t="s">
+    <row r="24" spans="2:14">
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24">
         <v>2050</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
         <f>+H17</f>
         <v>3.5</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <f>+I17</f>
         <v>1.2</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11" t="s">
+      <c r="K24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5341,25 +5127,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5368,7 +5154,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5393,11 +5179,11 @@
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -5411,204 +5197,176 @@
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2030</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1.86</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2050</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>8.91</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>5.58</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2050</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>8.85</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>4.99</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2050</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>4.37</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+    </row>
+    <row r="15" spans="2:11">
+      <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
+      <c r="D17" t="s">
         <v>46</v>
       </c>
       <c r="E17">
@@ -5626,221 +5384,215 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
+    <row r="18" spans="2:11">
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18">
         <v>2025</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
         <f>H5</f>
         <v>1.536</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <f>I5</f>
         <v>0.51500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
+    <row r="19" spans="2:11">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19">
         <v>2030</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" ref="H19:I19" si="0">H6</f>
         <v>1.86</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20">
         <v>2021</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" ref="H20:I20" si="1">H7</f>
         <v>8.91</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="7">
         <f t="shared" si="1"/>
         <v>5.58</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="11" t="s">
+    <row r="21" spans="2:11">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21">
         <v>2060</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
         <f>+H20</f>
         <v>8.91</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="7">
         <f>+I20</f>
         <v>5.58</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>2021</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" ref="H22:I22" si="2">H8</f>
         <v>8.85</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="7">
         <f t="shared" si="2"/>
         <v>4.99</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="11" t="s">
+    <row r="23" spans="2:11">
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23">
         <v>2060</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
         <f>+H22</f>
         <v>8.85</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="7">
         <f>+I22</f>
         <v>4.99</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24">
         <v>2021</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" ref="H24:I24" si="3">H9</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <f t="shared" si="3"/>
         <v>4.37</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="s">
+    <row r="25" spans="2:11">
+      <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25">
         <v>2060</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
         <f>+H24</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="7">
         <f>+I24</f>
         <v>4.37</v>
       </c>
-      <c r="J25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TIMES-NZ/SuppXLS/Scen_RE_Potentials.xlsx
+++ b/TIMES-NZ/SuppXLS/Scen_RE_Potentials.xlsx
@@ -425,7 +425,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -434,12 +434,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -574,12 +574,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -714,12 +714,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -888,12 +888,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1062,12 +1062,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1270,12 +1270,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1516,12 +1516,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1690,12 +1690,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1830,12 +1830,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1948,12 +1948,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2066,12 +2066,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2276,12 +2276,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2497,12 +2497,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2776,12 +2776,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>

--- a/TIMES-NZ/SuppXLS/Scen_RE_Potentials.xlsx
+++ b/TIMES-NZ/SuppXLS/Scen_RE_Potentials.xlsx
@@ -427,14 +427,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_GEO_LARGEBINARY</t>
+          <t>UC_GEO_LARGEFLASH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EGEOC*BIN*</t>
+          <t>EGEOC*FLSH*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Geothermal potential for large binary technologies</t>
+          <t>Geothermal potential for large flash technologies</t>
         </is>
       </c>
     </row>
@@ -567,14 +567,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UC_GEO_LARGEFLASH</t>
+          <t>UC_GEO_SMALLBINARY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EGEOC*FLSH*</t>
+          <t>EGEOBI*</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.345</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -683,19 +683,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Geothermal potential for large flash technologies</t>
+          <t>Geothermal potential for small binary technologies</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -704,554 +704,554 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.635</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.685</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UC_GEO_SMALLBINARY</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC_GEO_SMALLFLASH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EGEOBI*</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EGEOF*</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.345</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.295</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Geothermal potential for small binary technologies</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.375</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.635</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Geothermal potential for small flash technologies</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.575</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
           <t>2050</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.685</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UC_GEO_SMALLFLASH</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC_GEONEW_TOTAL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>EGEOF*</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EGEO*</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.295</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Geothermal potential for small flash technologies</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.325</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.575</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Total geothermal potential for new power plants</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.275</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.645</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.675</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
           <t>2050</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.625</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.035</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>~UC_T</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>UC_N</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Pset_Set</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Pset_PN</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>LimType</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>UC_CAP</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>UC_RHSRT~NI</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>UC_RHSRT~SI</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>UC_RHSRT~0</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>UC_GEONEW_TOTAL</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UC_GEO_LARGEBINARY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>EGEO*</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EGEOC*BIN*</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Total geothermal potential for new power plants</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.275</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.645</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.675</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Geothermal potential for large binary technologies</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.035</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1263,14 +1263,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1509,14 +1509,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1580,7 +1580,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_HYDRO_RoR_lrg</t>
+          <t>UC_HYDRO_DAM_NEW</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EHYD*RR*new*</t>
+          <t>EHY*DAM*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.168</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1625,14 +1625,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>New Hydro - Large RoR</t>
+          <t>New Hydro - Dams</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1642,424 +1642,434 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2035</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.215</t>
+          <t>0.978</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>UC_PUMPHYD_STG_LRG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EHY*PUM*L</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pumped hydro - large (lake onslow)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>~UC_T</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>UC_N</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Pset_Set</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Pset_PN</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>LimType</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>UC_CAP</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>UC_RHSRT~NI</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>UC_RHSRT~SI</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>UC_RHSRT~0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UC_HYDRO_DAM_NEW</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>EHY*DAM*</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.168</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>New Hydro - Dams</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.978</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>UC_PUMPHYD_STG_SML</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>EHY*PUM*S</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pumped hydro -small/generic</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UC_PUMPHYD_STG_LRG</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>EHY*PUM*L</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Pumped hydro - large (lake onslow)</t>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_HYDRO_RoRsm</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EHYD*RR*Sma*</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>New Hydro - Small RoR</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.076</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>UC_RHSRT~NI</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>0.196</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>UC_PUMPHYD_STG_SML</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>EHY*PUM*S</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Pumped hydro -small/generic</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>0.196</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.064</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.226</t>
         </is>
       </c>
     </row>
@@ -2069,130 +2079,120 @@
           <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UC_N</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>~UC_T</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UC_HYDRO_RoRsm</t>
+          <t>UC_N</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC_HYDRO_RoR_lrg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>ELE</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>EHYD*RR*Sma*</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>EHYD*RR*new*</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.016</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>New Hydro - Small RoR</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.076</t>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>New Hydro - Large RoR</t>
         </is>
       </c>
     </row>
@@ -2204,12 +2204,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>1.025</t>
         </is>
       </c>
     </row>
@@ -2238,12 +2238,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>1.215</t>
         </is>
       </c>
     </row>
@@ -2269,14 +2269,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2490,14 +2490,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2539,12 +2539,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>UC_RHSRT~NI</t>
+          <t>UC_RHSR~NI</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>UC_RHSRT~SI</t>
+          <t>UC_RHSR~SI</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_WIND_CONSENTED</t>
+          <t>UC_WIND_OFFSHORE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EWIN*CONS*</t>
+          <t>EWIN*OFF*FIX*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.508</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2606,177 +2606,72 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Onshore (consented/initial works completed) wind potential 2021</t>
+          <t>Fixed offshore wind potential</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UC_WIND_HIGHCF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EWIN*HIG*</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.865</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Onshore (High capacity Factor) wind potential 2030</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>UC_WIND_LOWCF</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>EWIN*LOW*</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.675</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Onshore (Low capacity Factor) wind potential 2030</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UC_WIND_DISTR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EWIN*DIST*</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.978</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.215</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Onshore (small - locally embedded) wind potential 2030</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2818,12 +2713,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>UC_RHSR~NI</t>
+          <t>UC_RHSRT~NI</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>UC_RHSR~SI</t>
+          <t>UC_RHSRT~SI</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2840,7 +2735,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UC_WIND_OFFSHORE</t>
+          <t>UC_WIND_CONSENTED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2850,7 +2745,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EWIN*OFF*FIX*</t>
+          <t>EWIN*CONS*</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2870,12 +2765,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>1.638</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>0.508</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2885,122 +2780,164 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Fixed offshore wind potential</t>
+          <t>Onshore (consented/initial works completed) wind potential 2021</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC_WIND_HIGHCF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EWIN*HIG*</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>2030</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>2.865</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-      <c r="J14" t="n">
-        <v/>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Onshore (High capacity Factor) wind potential 2030</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC_WIND_LOWCF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EWIN*LOW*</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" t="n">
-        <v/>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-      <c r="J15" t="n">
-        <v/>
+          <t>0.675</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Onshore (Low capacity Factor) wind potential 2030</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC_WIND_DISTR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EWIN*DIST*</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="n">
-        <v/>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.978</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-      <c r="J16" t="n">
-        <v/>
+          <t>0.215</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Onshore (small - locally embedded) wind potential 2030</t>
+        </is>
       </c>
     </row>
   </sheetData>
